--- a/Research/Data/dec2016statebystate.xlsx
+++ b/Research/Data/dec2016statebystate.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chrisg\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chrisg\BootCampClasswork\Project-ACA\Research\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="2" r:id="rId1"/>
@@ -597,7 +597,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -607,6 +607,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1059,7 +1065,7 @@
     <xf numFmtId="167" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1379,25 +1385,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1409,8 +1406,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -1826,10 +1841,10 @@
   <dimension ref="A1:BW61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="BA6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="BJ6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="BA1" sqref="BA1:BL1"/>
+      <selection pane="bottomRight" activeCell="BN4" sqref="BN4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1843,88 +1858,88 @@
   <sheetData>
     <row r="1" spans="1:73" ht="15.75" thickTop="1">
       <c r="A1" s="43"/>
-      <c r="B1" s="153" t="s">
+      <c r="B1" s="163" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="159" t="s">
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="154" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="154"/>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="154"/>
-      <c r="R1" s="154"/>
-      <c r="S1" s="154"/>
-      <c r="T1" s="154"/>
-      <c r="U1" s="154"/>
-      <c r="V1" s="154"/>
-      <c r="W1" s="154"/>
-      <c r="X1" s="154"/>
-      <c r="Y1" s="154"/>
-      <c r="Z1" s="154"/>
-      <c r="AA1" s="154"/>
-      <c r="AB1" s="155"/>
-      <c r="AC1" s="159" t="s">
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="155"/>
+      <c r="O1" s="155"/>
+      <c r="P1" s="155"/>
+      <c r="Q1" s="155"/>
+      <c r="R1" s="155"/>
+      <c r="S1" s="155"/>
+      <c r="T1" s="155"/>
+      <c r="U1" s="155"/>
+      <c r="V1" s="155"/>
+      <c r="W1" s="155"/>
+      <c r="X1" s="155"/>
+      <c r="Y1" s="155"/>
+      <c r="Z1" s="155"/>
+      <c r="AA1" s="155"/>
+      <c r="AB1" s="156"/>
+      <c r="AC1" s="154" t="s">
         <v>67</v>
       </c>
-      <c r="AD1" s="154"/>
-      <c r="AE1" s="154"/>
-      <c r="AF1" s="154"/>
-      <c r="AG1" s="154"/>
-      <c r="AH1" s="154"/>
-      <c r="AI1" s="154"/>
-      <c r="AJ1" s="154"/>
-      <c r="AK1" s="154"/>
-      <c r="AL1" s="154"/>
-      <c r="AM1" s="154"/>
-      <c r="AN1" s="154"/>
-      <c r="AO1" s="154"/>
-      <c r="AP1" s="154"/>
-      <c r="AQ1" s="154"/>
-      <c r="AR1" s="154"/>
-      <c r="AS1" s="154"/>
-      <c r="AT1" s="154"/>
-      <c r="AU1" s="154"/>
-      <c r="AV1" s="154"/>
-      <c r="AW1" s="154"/>
-      <c r="AX1" s="154"/>
-      <c r="AY1" s="154"/>
-      <c r="AZ1" s="155"/>
-      <c r="BA1" s="159" t="s">
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="155"/>
+      <c r="AG1" s="155"/>
+      <c r="AH1" s="155"/>
+      <c r="AI1" s="155"/>
+      <c r="AJ1" s="155"/>
+      <c r="AK1" s="155"/>
+      <c r="AL1" s="155"/>
+      <c r="AM1" s="155"/>
+      <c r="AN1" s="155"/>
+      <c r="AO1" s="155"/>
+      <c r="AP1" s="155"/>
+      <c r="AQ1" s="155"/>
+      <c r="AR1" s="155"/>
+      <c r="AS1" s="155"/>
+      <c r="AT1" s="155"/>
+      <c r="AU1" s="155"/>
+      <c r="AV1" s="155"/>
+      <c r="AW1" s="155"/>
+      <c r="AX1" s="155"/>
+      <c r="AY1" s="155"/>
+      <c r="AZ1" s="156"/>
+      <c r="BA1" s="154" t="s">
         <v>85</v>
       </c>
-      <c r="BB1" s="154"/>
-      <c r="BC1" s="154"/>
-      <c r="BD1" s="154"/>
-      <c r="BE1" s="154"/>
-      <c r="BF1" s="154"/>
-      <c r="BG1" s="154"/>
-      <c r="BH1" s="154"/>
-      <c r="BI1" s="154"/>
-      <c r="BJ1" s="154"/>
-      <c r="BK1" s="154"/>
-      <c r="BL1" s="155"/>
-      <c r="BM1" s="160" t="s">
+      <c r="BB1" s="155"/>
+      <c r="BC1" s="155"/>
+      <c r="BD1" s="155"/>
+      <c r="BE1" s="155"/>
+      <c r="BF1" s="155"/>
+      <c r="BG1" s="155"/>
+      <c r="BH1" s="155"/>
+      <c r="BI1" s="155"/>
+      <c r="BJ1" s="155"/>
+      <c r="BK1" s="155"/>
+      <c r="BL1" s="156"/>
+      <c r="BM1" s="157" t="s">
         <v>137</v>
       </c>
-      <c r="BN1" s="161"/>
-      <c r="BO1" s="161"/>
-      <c r="BP1" s="161"/>
-      <c r="BQ1" s="161"/>
-      <c r="BR1" s="161"/>
-      <c r="BS1" s="161"/>
-      <c r="BT1" s="161"/>
-      <c r="BU1" s="162"/>
+      <c r="BN1" s="158"/>
+      <c r="BO1" s="158"/>
+      <c r="BP1" s="158"/>
+      <c r="BQ1" s="158"/>
+      <c r="BR1" s="158"/>
+      <c r="BS1" s="158"/>
+      <c r="BT1" s="158"/>
+      <c r="BU1" s="159"/>
     </row>
     <row r="2" spans="1:73" s="6" customFormat="1" ht="31.5" customHeight="1">
       <c r="A2" s="40"/>
@@ -1933,51 +1948,51 @@
       <c r="D2" s="9"/>
       <c r="E2" s="22"/>
       <c r="F2" s="29"/>
-      <c r="H2" s="156" t="s">
+      <c r="H2" s="160" t="s">
         <v>139</v>
       </c>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156" t="s">
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160" t="s">
         <v>140</v>
       </c>
-      <c r="M2" s="156"/>
-      <c r="N2" s="156"/>
-      <c r="O2" s="156"/>
-      <c r="T2" s="156"/>
-      <c r="U2" s="156"/>
-      <c r="V2" s="156"/>
-      <c r="W2" s="156"/>
-      <c r="X2" s="156"/>
-      <c r="Y2" s="156"/>
-      <c r="Z2" s="156"/>
-      <c r="AA2" s="156"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="160"/>
+      <c r="O2" s="160"/>
+      <c r="T2" s="160"/>
+      <c r="U2" s="160"/>
+      <c r="V2" s="160"/>
+      <c r="W2" s="160"/>
+      <c r="X2" s="160"/>
+      <c r="Y2" s="160"/>
+      <c r="Z2" s="160"/>
+      <c r="AA2" s="160"/>
       <c r="AB2" s="30"/>
-      <c r="AC2" s="163" t="s">
+      <c r="AC2" s="162" t="s">
         <v>141</v>
       </c>
-      <c r="AD2" s="156"/>
-      <c r="AE2" s="156"/>
-      <c r="AF2" s="156"/>
-      <c r="AG2" s="156"/>
-      <c r="AH2" s="156"/>
-      <c r="AI2" s="156"/>
-      <c r="AL2" s="157" t="s">
+      <c r="AD2" s="160"/>
+      <c r="AE2" s="160"/>
+      <c r="AF2" s="160"/>
+      <c r="AG2" s="160"/>
+      <c r="AH2" s="160"/>
+      <c r="AI2" s="160"/>
+      <c r="AL2" s="161" t="s">
         <v>101</v>
       </c>
-      <c r="AM2" s="157"/>
-      <c r="AN2" s="157"/>
-      <c r="AO2" s="156" t="s">
+      <c r="AM2" s="161"/>
+      <c r="AN2" s="161"/>
+      <c r="AO2" s="160" t="s">
         <v>72</v>
       </c>
-      <c r="AP2" s="156"/>
-      <c r="AQ2" s="156"/>
-      <c r="AR2" s="156" t="s">
+      <c r="AP2" s="160"/>
+      <c r="AQ2" s="160"/>
+      <c r="AR2" s="160" t="s">
         <v>76</v>
       </c>
-      <c r="AS2" s="156"/>
-      <c r="AT2" s="156"/>
+      <c r="AS2" s="160"/>
+      <c r="AT2" s="160"/>
       <c r="AZ2" s="30"/>
       <c r="BA2" s="29"/>
       <c r="BL2" s="30"/>
@@ -2034,10 +2049,10 @@
       <c r="Q3" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="R3" s="157" t="s">
+      <c r="R3" s="161" t="s">
         <v>64</v>
       </c>
-      <c r="S3" s="157"/>
+      <c r="S3" s="161"/>
       <c r="T3" s="136" t="s">
         <v>121</v>
       </c>
@@ -2137,7 +2152,7 @@
       <c r="AZ3" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="BA3" s="31" t="s">
+      <c r="BA3" s="165" t="s">
         <v>86</v>
       </c>
       <c r="BB3" s="136" t="s">
@@ -2257,22 +2272,22 @@
       <c r="S4" s="11">
         <v>2016</v>
       </c>
-      <c r="T4" s="158">
+      <c r="T4" s="153">
         <v>2012</v>
       </c>
-      <c r="U4" s="158"/>
-      <c r="V4" s="158">
+      <c r="U4" s="153"/>
+      <c r="V4" s="153">
         <v>2013</v>
       </c>
-      <c r="W4" s="158"/>
-      <c r="X4" s="158">
+      <c r="W4" s="153"/>
+      <c r="X4" s="153">
         <v>2014</v>
       </c>
-      <c r="Y4" s="158"/>
-      <c r="Z4" s="158">
+      <c r="Y4" s="153"/>
+      <c r="Z4" s="153">
         <v>2015</v>
       </c>
-      <c r="AA4" s="158"/>
+      <c r="AA4" s="153"/>
       <c r="AB4" s="33" t="s">
         <v>119</v>
       </c>
@@ -2300,7 +2315,7 @@
       <c r="AJ4" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="AK4" s="7" t="s">
+      <c r="AK4" s="164" t="s">
         <v>146</v>
       </c>
       <c r="AL4" s="151" t="s">
@@ -2348,7 +2363,7 @@
       <c r="AZ4" s="36">
         <v>2014</v>
       </c>
-      <c r="BA4" s="32">
+      <c r="BA4" s="166">
         <v>2009</v>
       </c>
       <c r="BB4" s="11">
@@ -14315,6 +14330,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T4:U4"/>
     <mergeCell ref="V4:W4"/>
     <mergeCell ref="X4:Y4"/>
     <mergeCell ref="Z4:AA4"/>
@@ -14327,11 +14347,6 @@
     <mergeCell ref="AR2:AT2"/>
     <mergeCell ref="AC1:AZ1"/>
     <mergeCell ref="AC2:AI2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T4:U4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="68" orientation="landscape" r:id="rId1"/>
